--- a/SERV_Open8_SOTB_PCB/serv_open8_sotb_cpl1.xlsx
+++ b/SERV_Open8_SOTB_PCB/serv_open8_sotb_cpl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\SERV_OPEN8_Measurement\SERV_Open8_SOTB_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289FDE0B-9C19-4993-8B86-766976BAD650}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B477066-7271-46A6-B8F4-0D43004289A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
   <si>
     <t>Designator</t>
   </si>
@@ -47,27 +47,18 @@
     <t>R2</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>R22</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R26</t>
-  </si>
-  <si>
     <t>R27</t>
   </si>
   <si>
@@ -153,331 +141,325 @@
   </si>
   <si>
     <t>R56</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>1.0uF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>36pF</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
+    <t>IC12</t>
+  </si>
+  <si>
+    <t>SN74LVC1GU04DBVR</t>
+  </si>
+  <si>
+    <t>IC13</t>
+  </si>
+  <si>
+    <t>IC9</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>CHIP-LED0805</t>
+  </si>
+  <si>
+    <t>LED10</t>
+  </si>
+  <si>
+    <t>LED11</t>
+  </si>
+  <si>
+    <t>LED12</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>LED8</t>
+  </si>
+  <si>
+    <t>LED9</t>
+  </si>
+  <si>
+    <t>BSH103,235</t>
+  </si>
+  <si>
+    <t>SOT95P230X110-3N</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>66.5k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>300k</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Q13FC1350000400</t>
+  </si>
+  <si>
+    <t>HC-49SM8MHZ20PF30PPM</t>
+  </si>
+  <si>
+    <t>HC49SM8MHZ20PF30PPM</t>
+  </si>
+  <si>
+    <t>AP7331-WG-7</t>
+  </si>
+  <si>
+    <t>SOT95P285X145-5N</t>
+  </si>
+  <si>
+    <t>133k</t>
+  </si>
+  <si>
+    <t>482k</t>
   </si>
   <si>
     <t>top</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>1.0uF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>36pF</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>TPS76201DBVR</t>
-  </si>
-  <si>
-    <t>SOT95P280X145-5N</t>
-  </si>
-  <si>
-    <t>IC12</t>
-  </si>
-  <si>
-    <t>SN74LVC1GU04DBVR</t>
-  </si>
-  <si>
-    <t>IC13</t>
-  </si>
-  <si>
-    <t>IC9</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>CHIP-LED0805</t>
-  </si>
-  <si>
-    <t>LED10</t>
-  </si>
-  <si>
-    <t>LED11</t>
-  </si>
-  <si>
-    <t>LED12</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>LED3</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>LED5</t>
-  </si>
-  <si>
-    <t>LED6</t>
-  </si>
-  <si>
-    <t>LED7</t>
-  </si>
-  <si>
-    <t>LED8</t>
-  </si>
-  <si>
-    <t>LED9</t>
-  </si>
-  <si>
-    <t>BSH103,235</t>
-  </si>
-  <si>
-    <t>SOT95P230X110-3N</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>66.5k</t>
-  </si>
-  <si>
-    <t>53.6k</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>3.3k</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>300k</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>243k</t>
-  </si>
-  <si>
-    <t>R50</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Q13FC1350000400</t>
-  </si>
-  <si>
-    <t>HC-49SM8MHZ20PF30PPM</t>
-  </si>
-  <si>
-    <t>HC49SM8MHZ20PF30PPM</t>
   </si>
 </sst>
 </file>
@@ -855,7 +837,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -896,7 +878,7 @@
         <v>19.5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3">
         <v>270</v>
@@ -904,7 +886,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3">
         <v>-54</v>
@@ -913,7 +895,7 @@
         <v>49.5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3">
         <v>180</v>
@@ -921,7 +903,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>24.5</v>
@@ -930,7 +912,7 @@
         <v>29.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3">
         <v>270</v>
@@ -938,7 +920,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>22</v>
@@ -947,7 +929,7 @@
         <v>29.5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3">
         <v>270</v>
@@ -955,7 +937,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>-54</v>
@@ -964,7 +946,7 @@
         <v>22.5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3">
         <v>180</v>
@@ -972,16 +954,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3">
-        <v>-60</v>
+        <v>-60.5</v>
       </c>
       <c r="C7" s="3">
         <v>28.5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3">
         <v>270</v>
@@ -989,7 +971,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3">
         <v>-59.5</v>
@@ -998,7 +980,7 @@
         <v>-36.5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3">
         <v>180</v>
@@ -1006,7 +988,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>-54</v>
@@ -1015,7 +997,7 @@
         <v>31.5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3">
         <v>180</v>
@@ -1023,7 +1005,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3">
         <v>30.5</v>
@@ -1032,7 +1014,7 @@
         <v>-1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3">
         <v>180</v>
@@ -1040,7 +1022,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>30.5</v>
@@ -1049,7 +1031,7 @@
         <v>1.5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3">
         <v>180</v>
@@ -1057,7 +1039,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
         <v>30.5</v>
@@ -1066,7 +1048,7 @@
         <v>-7.5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E12" s="3">
         <v>180</v>
@@ -1074,7 +1056,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
         <v>-60</v>
@@ -1083,7 +1065,7 @@
         <v>-30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E13" s="3">
         <v>270</v>
@@ -1100,7 +1082,7 @@
         <v>55.5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3">
         <v>270</v>
@@ -1108,7 +1090,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
         <v>-63</v>
@@ -1117,7 +1099,7 @@
         <v>-13.5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E15" s="3">
         <v>180</v>
@@ -1125,7 +1107,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3">
         <v>-62.5</v>
@@ -1134,7 +1116,7 @@
         <v>-6.5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3">
         <v>270</v>
@@ -1142,7 +1124,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>23.5</v>
@@ -1151,7 +1133,7 @@
         <v>-40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E17" s="3">
         <v>270</v>
@@ -1159,7 +1141,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3">
         <v>30.5</v>
@@ -1168,7 +1150,7 @@
         <v>-5.5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3">
         <v>180</v>
@@ -1176,7 +1158,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
         <v>26</v>
@@ -1185,7 +1167,7 @@
         <v>-40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E19" s="3">
         <v>270</v>
@@ -1193,7 +1175,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3">
         <v>19.5</v>
@@ -1202,7 +1184,7 @@
         <v>-40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3">
         <v>270</v>
@@ -1210,7 +1192,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>17</v>
@@ -1219,7 +1201,7 @@
         <v>-40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3">
         <v>270</v>
@@ -1227,7 +1209,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -1236,7 +1218,7 @@
         <v>-29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3">
         <v>90</v>
@@ -1244,7 +1226,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3">
         <v>4.5</v>
@@ -1253,7 +1235,7 @@
         <v>-29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E23" s="3">
         <v>90</v>
@@ -1261,7 +1243,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3">
         <v>-11</v>
@@ -1270,7 +1252,7 @@
         <v>-29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E24" s="3">
         <v>90</v>
@@ -1278,7 +1260,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3">
         <v>-53.5</v>
@@ -1287,7 +1269,7 @@
         <v>58.5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E25" s="3">
         <v>180</v>
@@ -1295,7 +1277,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>-8.5</v>
@@ -1304,7 +1286,7 @@
         <v>-29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E26" s="3">
         <v>90</v>
@@ -1312,7 +1294,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3">
         <v>-13.5</v>
@@ -1321,7 +1303,7 @@
         <v>-29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E27" s="3">
         <v>90</v>
@@ -1329,7 +1311,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3">
         <v>-16</v>
@@ -1338,7 +1320,7 @@
         <v>-29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E28" s="3">
         <v>90</v>
@@ -1346,7 +1328,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
         <v>-60</v>
@@ -1355,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3">
         <v>270</v>
@@ -1363,7 +1345,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3">
         <v>-54</v>
@@ -1372,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3">
         <v>180</v>
@@ -1380,7 +1362,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3">
         <v>-60</v>
@@ -1389,7 +1371,7 @@
         <v>37.5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E31" s="3">
         <v>270</v>
@@ -1397,7 +1379,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3">
         <v>-54</v>
@@ -1406,7 +1388,7 @@
         <v>40.5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E32" s="3">
         <v>180</v>
@@ -1414,16 +1396,16 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
-        <v>-60</v>
+        <v>-60.5</v>
       </c>
       <c r="C33" s="3">
         <v>46.5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3">
         <v>270</v>
@@ -1431,7 +1413,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
         <v>-56.5</v>
@@ -1440,7 +1422,7 @@
         <v>28.5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -1448,7 +1430,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B35" s="3">
         <v>-56</v>
@@ -1457,7 +1439,7 @@
         <v>-30.5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1465,7 +1447,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B36" s="3">
         <v>-59</v>
@@ -1474,7 +1456,7 @@
         <v>-7.5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -1482,7 +1464,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3">
         <v>-56.5</v>
@@ -1491,7 +1473,7 @@
         <v>19.5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -1499,7 +1481,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3">
         <v>-56.5</v>
@@ -1508,7 +1490,7 @@
         <v>55.5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1516,16 +1498,16 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3">
-        <v>-56.5</v>
+        <v>-56</v>
       </c>
       <c r="C39" s="3">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -1533,16 +1515,16 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
-        <v>-56.5</v>
+        <v>-56</v>
       </c>
       <c r="C40" s="3">
         <v>37.5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -1550,7 +1532,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3">
         <v>-56.5</v>
@@ -1559,7 +1541,7 @@
         <v>46.5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1567,7 +1549,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B42" s="3">
         <v>-14</v>
@@ -1576,7 +1558,7 @@
         <v>54.5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E42" s="3">
         <v>180</v>
@@ -1584,7 +1566,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3">
         <v>-21.5</v>
@@ -1593,7 +1575,7 @@
         <v>-67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1601,7 +1583,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B44" s="3">
         <v>-15</v>
@@ -1610,7 +1592,7 @@
         <v>-67</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1618,7 +1600,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B45" s="3">
         <v>-8.5</v>
@@ -1627,7 +1609,7 @@
         <v>-67</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1635,7 +1617,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B46" s="3">
         <v>-1</v>
@@ -1644,7 +1626,7 @@
         <v>54.5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E46" s="3">
         <v>180</v>
@@ -1652,7 +1634,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3">
         <v>-7.5</v>
@@ -1661,7 +1643,7 @@
         <v>54.5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E47" s="3">
         <v>180</v>
@@ -1669,7 +1651,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B48" s="3">
         <v>-21</v>
@@ -1678,7 +1660,7 @@
         <v>54.5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E48" s="3">
         <v>180</v>
@@ -1686,7 +1668,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3">
         <v>6</v>
@@ -1695,7 +1677,7 @@
         <v>54.5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E49" s="3">
         <v>180</v>
@@ -1703,7 +1685,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3">
         <v>12.5</v>
@@ -1712,7 +1694,7 @@
         <v>54.5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E50" s="3">
         <v>180</v>
@@ -1720,7 +1702,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B51" s="3">
         <v>19</v>
@@ -1729,7 +1711,7 @@
         <v>54.5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E51" s="3">
         <v>180</v>
@@ -1737,7 +1719,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B52" s="3">
         <v>26</v>
@@ -1746,7 +1728,7 @@
         <v>54.5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E52" s="3">
         <v>180</v>
@@ -1754,7 +1736,7 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B53" s="3">
         <v>-28</v>
@@ -1763,7 +1745,7 @@
         <v>-67</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -1771,7 +1753,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3">
         <v>-1</v>
@@ -1780,7 +1762,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3">
         <v>90</v>
@@ -1788,7 +1770,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B55" s="3">
         <v>-21.5</v>
@@ -1797,7 +1779,7 @@
         <v>-61.5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3">
         <v>270</v>
@@ -1805,7 +1787,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B56" s="3">
         <v>-15</v>
@@ -1814,7 +1796,7 @@
         <v>-61.5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E56" s="3">
         <v>270</v>
@@ -1822,7 +1804,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B57" s="3">
         <v>-8.5</v>
@@ -1831,7 +1813,7 @@
         <v>-61.5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E57" s="3">
         <v>270</v>
@@ -1839,7 +1821,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>-7.5</v>
@@ -1848,7 +1830,7 @@
         <v>50</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E58" s="3">
         <v>90</v>
@@ -1856,7 +1838,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B59" s="3">
         <v>-14</v>
@@ -1865,7 +1847,7 @@
         <v>50</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E59" s="3">
         <v>90</v>
@@ -1873,7 +1855,7 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B60" s="3">
         <v>-21</v>
@@ -1882,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E60" s="3">
         <v>90</v>
@@ -1890,7 +1872,7 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B61" s="3">
         <v>6</v>
@@ -1899,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E61" s="3">
         <v>90</v>
@@ -1907,7 +1889,7 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B62" s="3">
         <v>12.5</v>
@@ -1916,7 +1898,7 @@
         <v>50</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E62" s="3">
         <v>90</v>
@@ -1924,7 +1906,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3">
         <v>19</v>
@@ -1933,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E63" s="3">
         <v>90</v>
@@ -1941,7 +1923,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B64" s="3">
         <v>26</v>
@@ -1950,7 +1932,7 @@
         <v>50</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E64" s="3">
         <v>90</v>
@@ -1958,7 +1940,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B65" s="3">
         <v>-28</v>
@@ -1967,7 +1949,7 @@
         <v>-61.5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E65" s="3">
         <v>270</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B66" s="3">
         <v>-56.5</v>
@@ -1984,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E66" s="3">
         <v>180</v>
@@ -1992,7 +1974,7 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
         <v>-56.5</v>
@@ -2001,7 +1983,7 @@
         <v>34.5</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E67" s="3">
         <v>180</v>
@@ -2009,7 +1991,7 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>-52.5</v>
@@ -2018,7 +2000,7 @@
         <v>37.5</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E68" s="3">
         <v>270</v>
@@ -2026,16 +2008,16 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
-        <v>-57.5</v>
+        <v>-56.5</v>
       </c>
       <c r="C69" s="3">
-        <v>40.5</v>
+        <v>43.5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E69" s="3">
         <v>180</v>
@@ -2043,33 +2025,33 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3">
-        <v>-56.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C70" s="3">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E70" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
-        <v>-52.5</v>
+        <v>-17</v>
       </c>
       <c r="C71" s="3">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E71" s="3">
         <v>270</v>
@@ -2077,33 +2059,33 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3">
-        <v>-57.5</v>
+        <v>-14</v>
       </c>
       <c r="C72" s="3">
-        <v>49.5</v>
+        <v>46.5</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E72" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="C73" s="3">
         <v>50</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E73" s="3">
         <v>270</v>
@@ -2111,16 +2093,16 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="C74" s="3">
         <v>46.5</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
@@ -2128,16 +2110,16 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3">
-        <v>-4</v>
+        <v>-52.5</v>
       </c>
       <c r="C75" s="3">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E75" s="3">
         <v>270</v>
@@ -2145,50 +2127,50 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>-1</v>
+        <v>-10.5</v>
       </c>
       <c r="C76" s="3">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3">
-        <v>-52.5</v>
+        <v>-7.5</v>
       </c>
       <c r="C77" s="3">
-        <v>19.5</v>
+        <v>46.5</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E77" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B78" s="3">
-        <v>-10.5</v>
+        <v>-24</v>
       </c>
       <c r="C78" s="3">
         <v>50</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E78" s="3">
         <v>270</v>
@@ -2196,16 +2178,16 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B79" s="3">
-        <v>-7.5</v>
+        <v>-21</v>
       </c>
       <c r="C79" s="3">
         <v>46.5</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -2213,356 +2195,356 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3">
-        <v>-24</v>
+        <v>-56.5</v>
       </c>
       <c r="C80" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E80" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="3">
-        <v>-21</v>
+        <v>-52.5</v>
       </c>
       <c r="C81" s="3">
-        <v>46.5</v>
+        <v>28.5</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B82" s="3">
-        <v>-56.5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E82" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B83" s="3">
-        <v>-52.5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="3">
-        <v>28.5</v>
+        <v>46.5</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E83" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B84" s="3">
-        <v>-57.5</v>
+        <v>9</v>
       </c>
       <c r="C84" s="3">
-        <v>31.5</v>
+        <v>50</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E84" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B85" s="3">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="C85" s="3">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E85" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C86" s="3">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E86" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C87" s="3">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E87" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B88" s="3">
-        <v>-57.5</v>
+        <v>23</v>
       </c>
       <c r="C88" s="3">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E88" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B89" s="3">
-        <v>12.5</v>
+        <v>-36</v>
       </c>
       <c r="C89" s="3">
-        <v>46.5</v>
+        <v>-54.5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B90" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C90" s="3">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E90" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B91" s="3">
-        <v>19</v>
+        <v>-38</v>
       </c>
       <c r="C91" s="3">
-        <v>46.5</v>
+        <v>-37</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B92" s="3">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="C92" s="3">
-        <v>50</v>
+        <v>-61.5</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E92" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B93" s="3">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="C93" s="3">
-        <v>-54.5</v>
+        <v>-58</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E93" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B94" s="3">
-        <v>26</v>
+        <v>-18.5</v>
       </c>
       <c r="C94" s="3">
-        <v>46.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B95" s="3">
-        <v>-38</v>
+        <v>-56.5</v>
       </c>
       <c r="C95" s="3">
-        <v>-37</v>
+        <v>52.5</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E95" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B96" s="3">
-        <v>-25</v>
+        <v>-21.5</v>
       </c>
       <c r="C96" s="3">
-        <v>-61.5</v>
+        <v>-58</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E96" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B97" s="3">
-        <v>-28</v>
+        <v>-54.5</v>
       </c>
       <c r="C97" s="3">
-        <v>-58</v>
+        <v>-33.5</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E97" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3">
-        <v>-18.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C98" s="3">
-        <v>-61.5</v>
+        <v>-30.5</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E98" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B99" s="3">
-        <v>-56.5</v>
+        <v>-57</v>
       </c>
       <c r="C99" s="3">
-        <v>52.5</v>
+        <v>-34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E99" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B100" s="3">
-        <v>-21.5</v>
+        <v>-54.5</v>
       </c>
       <c r="C100" s="3">
-        <v>-58</v>
+        <v>-35.5</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E100" s="3">
         <v>180</v>
@@ -2570,16 +2552,16 @@
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B101" s="3">
-        <v>-54.5</v>
+        <v>-57.5</v>
       </c>
       <c r="C101" s="3">
-        <v>-33.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -2587,16 +2569,16 @@
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B102" s="3">
-        <v>-52.5</v>
+        <v>-55.5</v>
       </c>
       <c r="C102" s="3">
-        <v>-30.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E102" s="3">
         <v>270</v>
@@ -2604,16 +2586,16 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B103" s="3">
-        <v>-57</v>
+        <v>-60.5</v>
       </c>
       <c r="C103" s="3">
-        <v>-34</v>
+        <v>-11</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E103" s="3">
         <v>90</v>
@@ -2621,16 +2603,16 @@
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="B104" s="3">
-        <v>-54.5</v>
+        <v>-57.5</v>
       </c>
       <c r="C104" s="3">
-        <v>-35.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E104" s="3">
         <v>180</v>
@@ -2638,33 +2620,33 @@
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B105" s="3">
-        <v>-57.5</v>
+        <v>-12</v>
       </c>
       <c r="C105" s="3">
-        <v>-10.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E105" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B106" s="3">
-        <v>-55.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C106" s="3">
-        <v>-7.5</v>
+        <v>55.5</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E106" s="3">
         <v>270</v>
@@ -2672,101 +2654,101 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B107" s="3">
-        <v>-60.5</v>
+        <v>-15</v>
       </c>
       <c r="C107" s="3">
-        <v>-11</v>
+        <v>-58</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E107" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B108" s="3">
-        <v>-57.5</v>
+        <v>-5.5</v>
       </c>
       <c r="C108" s="3">
-        <v>-12.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E108" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B109" s="3">
-        <v>-12</v>
+        <v>-8.5</v>
       </c>
       <c r="C109" s="3">
-        <v>-61.5</v>
+        <v>-58</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E109" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B110" s="3">
-        <v>-52.5</v>
+        <v>20</v>
       </c>
       <c r="C110" s="3">
-        <v>55.5</v>
+        <v>-55.5</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E110" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B111" s="3">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3">
-        <v>-58</v>
+        <v>-55.5</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E111" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="B112" s="3">
-        <v>-5.5</v>
+        <v>6</v>
       </c>
       <c r="C112" s="3">
-        <v>-61.5</v>
+        <v>-55.5</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E112" s="3">
         <v>90</v>
@@ -2777,64 +2759,64 @@
         <v>39</v>
       </c>
       <c r="B113" s="3">
-        <v>-8.5</v>
+        <v>-1</v>
       </c>
       <c r="C113" s="3">
-        <v>-58</v>
+        <v>-55.5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E113" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B114" s="3">
-        <v>20</v>
+        <v>-56.5</v>
       </c>
       <c r="C114" s="3">
-        <v>-55.5</v>
+        <v>6.5</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E114" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B115" s="3">
-        <v>13</v>
+        <v>-52.5</v>
       </c>
       <c r="C115" s="3">
-        <v>-55.5</v>
+        <v>10</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E115" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B116" s="3">
-        <v>6</v>
+        <v>-66.5</v>
       </c>
       <c r="C116" s="3">
-        <v>-55.5</v>
+        <v>-9</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E116" s="3">
         <v>90</v>
@@ -2842,122 +2824,62 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B117" s="3">
-        <v>-1</v>
+        <v>-65</v>
       </c>
       <c r="C117" s="3">
-        <v>-55.5</v>
+        <v>-33</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E117" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="3">
-        <v>-57.5</v>
-      </c>
-      <c r="C118" s="3">
-        <v>58.5</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="3">
-        <v>180</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="3">
-        <v>-56.5</v>
-      </c>
-      <c r="C119" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E119" s="3">
-        <v>180</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="3">
-        <v>-52.5</v>
-      </c>
-      <c r="C120" s="3">
-        <v>10</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="3">
-        <v>270</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="3">
-        <v>-57.5</v>
-      </c>
-      <c r="C121" s="3">
-        <v>13</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="3">
-        <v>180</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B122" s="3">
-        <v>-66.5</v>
-      </c>
-      <c r="C122" s="3">
-        <v>-9</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" s="3">
-        <v>90</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="3">
-        <v>-65</v>
-      </c>
-      <c r="C123" s="3">
-        <v>-33</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="3">
-        <v>90</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
@@ -3024,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8DF2AA-D65F-4346-9D06-12C7C19C8B80}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D116" sqref="D1:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3046,7 +2968,7 @@
         <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F1">
         <v>805</v>
@@ -3054,7 +2976,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>-54</v>
@@ -3066,7 +2988,7 @@
         <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>805</v>
@@ -3074,7 +2996,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>24.5</v>
@@ -3086,7 +3008,7 @@
         <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>805</v>
@@ -3094,7 +3016,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -3106,7 +3028,7 @@
         <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>805</v>
@@ -3114,7 +3036,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>-54</v>
@@ -3126,7 +3048,7 @@
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F5">
         <v>805</v>
@@ -3134,10 +3056,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>-60</v>
+        <v>-60.5</v>
       </c>
       <c r="C6">
         <v>28.5</v>
@@ -3146,7 +3068,7 @@
         <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>805</v>
@@ -3154,7 +3076,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>-59.5</v>
@@ -3166,7 +3088,7 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>805</v>
@@ -3174,7 +3096,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>-54</v>
@@ -3186,7 +3108,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F8">
         <v>805</v>
@@ -3194,7 +3116,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>30.5</v>
@@ -3206,7 +3128,7 @@
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>805</v>
@@ -3214,7 +3136,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>30.5</v>
@@ -3226,7 +3148,7 @@
         <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F10">
         <v>805</v>
@@ -3234,7 +3156,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>30.5</v>
@@ -3246,7 +3168,7 @@
         <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>805</v>
@@ -3254,7 +3176,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>-60</v>
@@ -3266,7 +3188,7 @@
         <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F12">
         <v>805</v>
@@ -3286,7 +3208,7 @@
         <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>805</v>
@@ -3294,7 +3216,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>-63</v>
@@ -3306,7 +3228,7 @@
         <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>805</v>
@@ -3314,7 +3236,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>-62.5</v>
@@ -3326,7 +3248,7 @@
         <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>805</v>
@@ -3334,7 +3256,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>23.5</v>
@@ -3346,7 +3268,7 @@
         <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>805</v>
@@ -3354,7 +3276,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>30.5</v>
@@ -3366,7 +3288,7 @@
         <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <v>805</v>
@@ -3374,7 +3296,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -3386,7 +3308,7 @@
         <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <v>805</v>
@@ -3394,7 +3316,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>19.5</v>
@@ -3406,7 +3328,7 @@
         <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>805</v>
@@ -3414,7 +3336,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3426,7 +3348,7 @@
         <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>805</v>
@@ -3434,7 +3356,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3446,7 +3368,7 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F21">
         <v>805</v>
@@ -3454,7 +3376,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>4.5</v>
@@ -3466,7 +3388,7 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F22">
         <v>805</v>
@@ -3474,7 +3396,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>-11</v>
@@ -3486,7 +3408,7 @@
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>805</v>
@@ -3494,7 +3416,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>-53.5</v>
@@ -3506,7 +3428,7 @@
         <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>805</v>
@@ -3514,7 +3436,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>-8.5</v>
@@ -3526,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>805</v>
@@ -3534,7 +3456,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>-13.5</v>
@@ -3546,7 +3468,7 @@
         <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>805</v>
@@ -3554,7 +3476,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>-16</v>
@@ -3566,7 +3488,7 @@
         <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <v>805</v>
@@ -3574,7 +3496,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>-60</v>
@@ -3586,7 +3508,7 @@
         <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>805</v>
@@ -3594,7 +3516,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>-54</v>
@@ -3606,7 +3528,7 @@
         <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F29">
         <v>805</v>
@@ -3614,7 +3536,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>-60</v>
@@ -3626,7 +3548,7 @@
         <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <v>805</v>
@@ -3634,7 +3556,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>-54</v>
@@ -3646,7 +3568,7 @@
         <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F31">
         <v>805</v>
@@ -3654,10 +3576,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32">
-        <v>-60</v>
+        <v>-60.5</v>
       </c>
       <c r="C32">
         <v>46.5</v>
@@ -3666,7 +3588,7 @@
         <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F32">
         <v>805</v>
@@ -3674,7 +3596,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>-56.5</v>
@@ -3686,15 +3608,15 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B34">
         <v>-56</v>
@@ -3706,15 +3628,15 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>-59</v>
@@ -3726,15 +3648,15 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>-56.5</v>
@@ -3746,15 +3668,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>-56.5</v>
@@ -3766,18 +3688,18 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>-56.5</v>
+        <v>-56</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -3786,18 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>-56.5</v>
+        <v>-56</v>
       </c>
       <c r="C39">
         <v>37.5</v>
@@ -3806,15 +3728,15 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>-56.5</v>
@@ -3826,15 +3748,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>-14</v>
@@ -3846,12 +3768,12 @@
         <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>-21.5</v>
@@ -3863,12 +3785,12 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <v>-15</v>
@@ -3880,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>-8.5</v>
@@ -3897,12 +3819,12 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B45">
         <v>-1</v>
@@ -3914,12 +3836,12 @@
         <v>180</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B46">
         <v>-7.5</v>
@@ -3931,12 +3853,12 @@
         <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B47">
         <v>-21</v>
@@ -3948,12 +3870,12 @@
         <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3965,12 +3887,12 @@
         <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B49">
         <v>12.5</v>
@@ -3982,12 +3904,12 @@
         <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>19</v>
@@ -3999,12 +3921,12 @@
         <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -4016,12 +3938,12 @@
         <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>-28</v>
@@ -4033,12 +3955,12 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>-1</v>
@@ -4050,15 +3972,15 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>-21.5</v>
@@ -4070,15 +3992,15 @@
         <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>-15</v>
@@ -4090,15 +4012,15 @@
         <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>-8.5</v>
@@ -4110,15 +4032,15 @@
         <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>-7.5</v>
@@ -4130,15 +4052,15 @@
         <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>-14</v>
@@ -4150,15 +4072,15 @@
         <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>-21</v>
@@ -4170,15 +4092,15 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -4190,15 +4112,15 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>12.5</v>
@@ -4210,15 +4132,15 @@
         <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B62">
         <v>19</v>
@@ -4230,15 +4152,15 @@
         <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>26</v>
@@ -4250,15 +4172,15 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>-28</v>
@@ -4270,15 +4192,15 @@
         <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B65">
         <v>-56.5</v>
@@ -4290,7 +4212,7 @@
         <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F65">
         <v>805</v>
@@ -4298,7 +4220,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>-56.5</v>
@@ -4310,7 +4232,7 @@
         <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F66">
         <v>805</v>
@@ -4318,7 +4240,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>-52.5</v>
@@ -4330,7 +4252,7 @@
         <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <v>805</v>
@@ -4338,19 +4260,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>-57.5</v>
+        <v>-56.5</v>
       </c>
       <c r="C68">
-        <v>40.5</v>
+        <v>43.5</v>
       </c>
       <c r="D68">
         <v>180</v>
       </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="E68" t="s">
+        <v>118</v>
       </c>
       <c r="F68">
         <v>805</v>
@@ -4358,19 +4280,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>-56.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C69">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="D69">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F69">
         <v>805</v>
@@ -4378,19 +4300,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>-52.5</v>
+        <v>-17</v>
       </c>
       <c r="C70">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <v>270</v>
       </c>
-      <c r="E70" t="s">
-        <v>127</v>
+      <c r="E70">
+        <v>330</v>
       </c>
       <c r="F70">
         <v>805</v>
@@ -4398,19 +4320,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>-57.5</v>
+        <v>-14</v>
       </c>
       <c r="C71">
-        <v>49.5</v>
+        <v>46.5</v>
       </c>
       <c r="D71">
-        <v>180</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
       </c>
       <c r="F71">
         <v>805</v>
@@ -4418,10 +4340,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -4438,10 +4360,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="C73">
         <v>46.5</v>
@@ -4450,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F73">
         <v>805</v>
@@ -4458,19 +4380,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <v>-4</v>
+        <v>-52.5</v>
       </c>
       <c r="C74">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="D74">
         <v>270</v>
       </c>
-      <c r="E74">
-        <v>330</v>
+      <c r="E74" t="s">
+        <v>143</v>
       </c>
       <c r="F74">
         <v>805</v>
@@ -4478,19 +4400,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-1</v>
+        <v>-10.5</v>
       </c>
       <c r="C75">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>128</v>
+        <v>270</v>
+      </c>
+      <c r="E75">
+        <v>330</v>
       </c>
       <c r="F75">
         <v>805</v>
@@ -4498,19 +4420,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-52.5</v>
+        <v>-7.5</v>
       </c>
       <c r="C76">
-        <v>19.5</v>
+        <v>46.5</v>
       </c>
       <c r="D76">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F76">
         <v>805</v>
@@ -4518,10 +4440,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>-10.5</v>
+        <v>-24</v>
       </c>
       <c r="C77">
         <v>50</v>
@@ -4538,10 +4460,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>-7.5</v>
+        <v>-21</v>
       </c>
       <c r="C78">
         <v>46.5</v>
@@ -4550,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F78">
         <v>805</v>
@@ -4558,19 +4480,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79">
-        <v>-24</v>
+        <v>-56.5</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>270</v>
-      </c>
-      <c r="E79">
-        <v>330</v>
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>118</v>
       </c>
       <c r="F79">
         <v>805</v>
@@ -4578,19 +4500,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>-21</v>
+        <v>-52.5</v>
       </c>
       <c r="C80">
-        <v>46.5</v>
+        <v>28.5</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F80">
         <v>805</v>
@@ -4598,19 +4520,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>-56.5</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D81">
-        <v>180</v>
-      </c>
-      <c r="E81" t="s">
-        <v>126</v>
+        <v>270</v>
+      </c>
+      <c r="E81">
+        <v>330</v>
       </c>
       <c r="F81">
         <v>805</v>
@@ -4618,19 +4540,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B82">
-        <v>-52.5</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>28.5</v>
+        <v>46.5</v>
       </c>
       <c r="D82">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F82">
         <v>805</v>
@@ -4638,19 +4560,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B83">
-        <v>-57.5</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>31.5</v>
+        <v>50</v>
       </c>
       <c r="D83">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="F83">
         <v>805</v>
@@ -4658,19 +4580,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="C84">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D84">
-        <v>270</v>
-      </c>
-      <c r="E84">
-        <v>330</v>
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
       </c>
       <c r="F84">
         <v>805</v>
@@ -4678,19 +4600,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>128</v>
+        <v>270</v>
+      </c>
+      <c r="E85">
+        <v>330</v>
       </c>
       <c r="F85">
         <v>805</v>
@@ -4698,19 +4620,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D86">
-        <v>270</v>
-      </c>
-      <c r="E86">
-        <v>330</v>
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>119</v>
       </c>
       <c r="F86">
         <v>805</v>
@@ -4718,19 +4640,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B87">
-        <v>-57.5</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="D87">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="F87">
         <v>805</v>
@@ -4738,19 +4660,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B88">
-        <v>12.5</v>
+        <v>-36</v>
       </c>
       <c r="C88">
-        <v>46.5</v>
+        <v>-54.5</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F88">
         <v>805</v>
@@ -4758,19 +4680,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B89">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D89">
-        <v>270</v>
-      </c>
-      <c r="E89">
-        <v>330</v>
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>119</v>
       </c>
       <c r="F89">
         <v>805</v>
@@ -4778,19 +4700,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>-38</v>
       </c>
       <c r="C90">
-        <v>46.5</v>
+        <v>-37</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F90">
         <v>805</v>
@@ -4798,16 +4720,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B91">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>-61.5</v>
       </c>
       <c r="D91">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E91">
         <v>330</v>
@@ -4818,19 +4740,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B92">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="C92">
-        <v>-54.5</v>
+        <v>-58</v>
       </c>
       <c r="D92">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F92">
         <v>805</v>
@@ -4838,19 +4760,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B93">
-        <v>26</v>
+        <v>-18.5</v>
       </c>
       <c r="C93">
-        <v>46.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>128</v>
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>330</v>
       </c>
       <c r="F93">
         <v>805</v>
@@ -4858,19 +4780,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>-38</v>
+        <v>-56.5</v>
       </c>
       <c r="C94">
-        <v>-37</v>
+        <v>52.5</v>
       </c>
       <c r="D94">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F94">
         <v>805</v>
@@ -4878,19 +4800,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B95">
-        <v>-25</v>
+        <v>-21.5</v>
       </c>
       <c r="C95">
-        <v>-61.5</v>
+        <v>-58</v>
       </c>
       <c r="D95">
-        <v>90</v>
-      </c>
-      <c r="E95">
-        <v>330</v>
+        <v>180</v>
+      </c>
+      <c r="E95" t="s">
+        <v>119</v>
       </c>
       <c r="F95">
         <v>805</v>
@@ -4898,19 +4820,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B96">
-        <v>-28</v>
+        <v>-54.5</v>
       </c>
       <c r="C96">
-        <v>-58</v>
+        <v>-33.5</v>
       </c>
       <c r="D96">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F96">
         <v>805</v>
@@ -4918,19 +4840,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B97">
-        <v>-18.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C97">
-        <v>-61.5</v>
+        <v>-30.5</v>
       </c>
       <c r="D97">
-        <v>90</v>
-      </c>
-      <c r="E97">
-        <v>330</v>
+        <v>270</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
       </c>
       <c r="F97">
         <v>805</v>
@@ -4938,16 +4860,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B98">
-        <v>-56.5</v>
+        <v>-57</v>
       </c>
       <c r="C98">
-        <v>52.5</v>
+        <v>-34</v>
       </c>
       <c r="D98">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E98" t="s">
         <v>126</v>
@@ -4958,19 +4880,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B99">
-        <v>-21.5</v>
+        <v>-54.5</v>
       </c>
       <c r="C99">
-        <v>-58</v>
+        <v>-35.5</v>
       </c>
       <c r="D99">
         <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F99">
         <v>805</v>
@@ -4978,19 +4900,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B100">
-        <v>-54.5</v>
+        <v>-57.5</v>
       </c>
       <c r="C100">
-        <v>-33.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F100">
         <v>805</v>
@@ -4998,19 +4920,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B101">
-        <v>-52.5</v>
+        <v>-55.5</v>
       </c>
       <c r="C101">
-        <v>-30.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D101">
         <v>270</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F101">
         <v>805</v>
@@ -5018,19 +4940,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B102">
-        <v>-57</v>
+        <v>-60.5</v>
       </c>
       <c r="C102">
-        <v>-34</v>
+        <v>-11</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F102">
         <v>805</v>
@@ -5038,19 +4960,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="B103">
-        <v>-54.5</v>
+        <v>-57.5</v>
       </c>
       <c r="C103">
-        <v>-35.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D103">
         <v>180</v>
       </c>
       <c r="E103" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F103">
         <v>805</v>
@@ -5058,19 +4980,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B104">
-        <v>-57.5</v>
+        <v>-12</v>
       </c>
       <c r="C104">
-        <v>-10.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="E104">
+        <v>330</v>
       </c>
       <c r="F104">
         <v>805</v>
@@ -5078,19 +5000,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B105">
-        <v>-55.5</v>
+        <v>-52.5</v>
       </c>
       <c r="C105">
-        <v>-7.5</v>
+        <v>55.5</v>
       </c>
       <c r="D105">
         <v>270</v>
       </c>
       <c r="E105" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F105">
         <v>805</v>
@@ -5098,19 +5020,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B106">
-        <v>-60.5</v>
+        <v>-15</v>
       </c>
       <c r="C106">
-        <v>-11</v>
+        <v>-58</v>
       </c>
       <c r="D106">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F106">
         <v>805</v>
@@ -5118,19 +5040,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B107">
-        <v>-57.5</v>
+        <v>-5.5</v>
       </c>
       <c r="C107">
-        <v>-12.5</v>
+        <v>-61.5</v>
       </c>
       <c r="D107">
-        <v>180</v>
-      </c>
-      <c r="E107" t="s">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="E107">
+        <v>330</v>
       </c>
       <c r="F107">
         <v>805</v>
@@ -5138,19 +5060,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B108">
-        <v>-12</v>
+        <v>-8.5</v>
       </c>
       <c r="C108">
-        <v>-61.5</v>
+        <v>-58</v>
       </c>
       <c r="D108">
-        <v>90</v>
-      </c>
-      <c r="E108">
-        <v>330</v>
+        <v>180</v>
+      </c>
+      <c r="E108" t="s">
+        <v>119</v>
       </c>
       <c r="F108">
         <v>805</v>
@@ -5158,19 +5080,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B109">
-        <v>-52.5</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>55.5</v>
+        <v>-55.5</v>
       </c>
       <c r="D109">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F109">
         <v>805</v>
@@ -5178,19 +5100,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B110">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>-58</v>
+        <v>-55.5</v>
       </c>
       <c r="D110">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F110">
         <v>805</v>
@@ -5198,19 +5120,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="B111">
-        <v>-5.5</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>-61.5</v>
+        <v>-55.5</v>
       </c>
       <c r="D111">
         <v>90</v>
       </c>
-      <c r="E111">
-        <v>330</v>
+      <c r="E111" t="s">
+        <v>119</v>
       </c>
       <c r="F111">
         <v>805</v>
@@ -5221,16 +5143,16 @@
         <v>39</v>
       </c>
       <c r="B112">
-        <v>-8.5</v>
+        <v>-1</v>
       </c>
       <c r="C112">
-        <v>-58</v>
+        <v>-55.5</v>
       </c>
       <c r="D112">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F112">
         <v>805</v>
@@ -5238,19 +5160,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>-56.5</v>
       </c>
       <c r="C113">
-        <v>-55.5</v>
+        <v>6.5</v>
       </c>
       <c r="D113">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E113" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F113">
         <v>805</v>
@@ -5258,19 +5180,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>13</v>
+        <v>-52.5</v>
       </c>
       <c r="C114">
-        <v>-55.5</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F114">
         <v>805</v>
@@ -5278,162 +5200,42 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>-66.5</v>
       </c>
       <c r="C115">
-        <v>-55.5</v>
+        <v>-9</v>
       </c>
       <c r="D115">
         <v>90</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
-      </c>
-      <c r="F115">
-        <v>805</v>
+        <v>138</v>
+      </c>
+      <c r="F115" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B116">
-        <v>-1</v>
+        <v>-65</v>
       </c>
       <c r="C116">
-        <v>-55.5</v>
+        <v>-33</v>
       </c>
       <c r="D116">
         <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117">
-        <v>-57.5</v>
-      </c>
-      <c r="C117">
-        <v>58.5</v>
-      </c>
-      <c r="D117">
-        <v>180</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118">
-        <v>-56.5</v>
-      </c>
-      <c r="C118">
-        <v>6.5</v>
-      </c>
-      <c r="D118">
-        <v>180</v>
-      </c>
-      <c r="E118" t="s">
-        <v>126</v>
-      </c>
-      <c r="F118">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119">
-        <v>-52.5</v>
-      </c>
-      <c r="C119">
-        <v>10</v>
-      </c>
-      <c r="D119">
-        <v>270</v>
-      </c>
-      <c r="E119" t="s">
-        <v>145</v>
-      </c>
-      <c r="F119">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120">
-        <v>-57.5</v>
-      </c>
-      <c r="C120">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>180</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121">
-        <v>-66.5</v>
-      </c>
-      <c r="C121">
-        <v>-9</v>
-      </c>
-      <c r="D121">
-        <v>90</v>
-      </c>
-      <c r="E121" t="s">
-        <v>149</v>
-      </c>
-      <c r="F121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122">
-        <v>-65</v>
-      </c>
-      <c r="C122">
-        <v>-33</v>
-      </c>
-      <c r="D122">
-        <v>90</v>
-      </c>
-      <c r="E122" t="s">
-        <v>150</v>
-      </c>
-      <c r="F122" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="F116" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
